--- a/defects/defect logging.xlsx
+++ b/defects/defect logging.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="820" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Serinal No</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>when update staff details, change name, the name is not updated in the staff list view.</t>
+  </si>
+  <si>
+    <t>confirmation popup when deleting</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -160,8 +166,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -176,23 +184,25 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,281 +532,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/defects/defect logging.xlsx
+++ b/defects/defect logging.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="-1920" yWindow="-17380" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Serinal No</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -532,13 +535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19:A20"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -549,7 +552,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -557,7 +560,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,8 +576,11 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -588,7 +594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -602,7 +608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -616,7 +622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -630,7 +636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45">
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -644,7 +650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -658,7 +664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -672,7 +678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -686,7 +692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -697,7 +703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -711,7 +717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -725,7 +731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -739,7 +745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -753,7 +759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -828,7 +834,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
